--- a/data/velocity_profiles_piv/PIV_profiles_1.8mm.xlsx
+++ b/data/velocity_profiles_piv/PIV_profiles_1.8mm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameslofty/Documents/GitHub/saltation_microplastic/data/velocity_profiles_piv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AEBF33-B0DD-1448-B9A6-E2E3A7C1620E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DCC8AB-E760-424B-8743-5537D7FFC05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="2460" windowWidth="26840" windowHeight="15940" xr2:uid="{72362AAE-E8A1-FD42-A692-99E9F0E4CF41}"/>
   </bookViews>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>u(m/s)(10l/s)</t>
-  </si>
-  <si>
-    <t>u(m/s)(12.5/s)</t>
   </si>
   <si>
     <t>u(m/s)(15l/s)</t>
@@ -56,6 +53,9 @@
   </si>
   <si>
     <t>y(m)(17.5l/s)</t>
+  </si>
+  <si>
+    <t>u(m/s)(12.5l/s)</t>
   </si>
 </sst>
 </file>
@@ -919,7 +919,7 @@
   <dimension ref="A1:L301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -939,40 +939,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
